--- a/test_scripts/edge/QS005_demoqa_testscript.xlsx
+++ b/test_scripts/edge/QS005_demoqa_testscript.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2EC4B3-67FC-4A32-9F72-F243501803A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ED9932-B0A0-4DA6-B59B-46A2CF8A66F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>open_browser</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>demoqa_home_ele_up_css</t>
-  </si>
-  <si>
-    <t>C:\Users\vinay\Desktop\chromedgerunonlinux.txt</t>
   </si>
   <si>
     <t>js_click</t>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3916CC0C-2E25-4DCF-A97F-45AF0FE46343}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -550,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,7 +618,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -657,10 +654,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,21 +665,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
